--- a/features_webcrawlers_twitch.xlsx
+++ b/features_webcrawlers_twitch.xlsx
@@ -917,55 +917,55 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>5952</v>
+        <v>1359</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>1520</v>
+        <v>1321</v>
       </c>
       <c r="G7">
-        <v>1298</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>54.29</v>
+        <v>33.19</v>
       </c>
       <c r="I7">
-        <v>1321</v>
+        <v>81</v>
       </c>
       <c r="J7">
-        <v>17.97</v>
+        <v>30.32</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L7">
-        <v>8.02</v>
+        <v>11.95</v>
       </c>
       <c r="N7">
         <v>60</v>
       </c>
       <c r="O7">
-        <v>8.02</v>
+        <v>33.19</v>
       </c>
       <c r="P7">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="R7">
         <v>72</v>
       </c>
       <c r="S7">
-        <v>3.02</v>
+        <v>11.95</v>
       </c>
       <c r="T7">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="V7">
         <v>81</v>
       </c>
       <c r="W7">
-        <v>6.92</v>
+        <v>30.32</v>
       </c>
       <c r="X7">
         <v>412</v>
@@ -974,16 +974,16 @@
         <v>82</v>
       </c>
       <c r="AA7">
-        <v>0.36</v>
+        <v>1.54</v>
       </c>
       <c r="AB7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD7">
         <v>83</v>
       </c>
       <c r="AE7">
-        <v>0.39</v>
+        <v>1.72</v>
       </c>
       <c r="AF7">
         <v>23</v>
@@ -992,7 +992,7 @@
         <v>133</v>
       </c>
       <c r="AI7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>145</v>
       </c>
       <c r="AM7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>186</v>
       </c>
       <c r="AY7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AZ7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB7">
         <v>218</v>
       </c>
       <c r="BC7">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7">
         <v>577</v>
       </c>
       <c r="BG7">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="BH7">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>10921</v>
+        <v>1918</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -1075,46 +1075,46 @@
         <v>1321</v>
       </c>
       <c r="G8">
-        <v>1298</v>
+        <v>81</v>
       </c>
       <c r="H8">
-        <v>70.64</v>
+        <v>33.31</v>
       </c>
       <c r="I8">
-        <v>1321</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>8.73</v>
+        <v>32.88</v>
       </c>
       <c r="K8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>6.98</v>
+        <v>4.64</v>
       </c>
       <c r="N8">
         <v>60</v>
       </c>
       <c r="O8">
-        <v>6.98</v>
+        <v>32.88</v>
       </c>
       <c r="P8">
-        <v>762</v>
+        <v>630</v>
       </c>
       <c r="R8">
         <v>72</v>
       </c>
       <c r="S8">
-        <v>0.28</v>
+        <v>0.98</v>
       </c>
       <c r="T8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V8">
         <v>81</v>
       </c>
       <c r="W8">
-        <v>5.86</v>
+        <v>33.31</v>
       </c>
       <c r="X8">
         <v>639</v>
@@ -1123,7 +1123,7 @@
         <v>82</v>
       </c>
       <c r="AA8">
-        <v>0.42</v>
+        <v>2.37</v>
       </c>
       <c r="AB8">
         <v>45</v>
@@ -1132,16 +1132,16 @@
         <v>83</v>
       </c>
       <c r="AE8">
-        <v>0.5600000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="AF8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH8">
         <v>133</v>
       </c>
       <c r="AI8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>199</v>
       </c>
       <c r="AU8">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AV8">
         <v>1</v>
@@ -1177,16 +1177,16 @@
         <v>186</v>
       </c>
       <c r="AY8">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AZ8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>218</v>
       </c>
       <c r="BC8">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="BD8">
         <v>2</v>
@@ -1195,7 +1195,7 @@
         <v>577</v>
       </c>
       <c r="BG8">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="BH8">
         <v>3</v>
@@ -1215,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>7612</v>
+        <v>822</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -1224,73 +1224,73 @@
         <v>1321</v>
       </c>
       <c r="G9">
-        <v>1298</v>
+        <v>81</v>
       </c>
       <c r="H9">
-        <v>87.64</v>
+        <v>45.26</v>
       </c>
       <c r="I9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9">
-        <v>4.9</v>
+        <v>17.72</v>
       </c>
       <c r="K9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9">
-        <v>1.92</v>
+        <v>6.36</v>
       </c>
       <c r="N9">
         <v>60</v>
       </c>
       <c r="O9">
-        <v>0.34</v>
+        <v>1.7</v>
       </c>
       <c r="P9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="R9">
         <v>72</v>
       </c>
       <c r="S9">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>81</v>
       </c>
       <c r="W9">
-        <v>4.9</v>
+        <v>45.26</v>
       </c>
       <c r="X9">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z9">
         <v>82</v>
       </c>
       <c r="AA9">
-        <v>0.38</v>
+        <v>3.47</v>
       </c>
       <c r="AB9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD9">
         <v>83</v>
       </c>
       <c r="AE9">
-        <v>1.92</v>
+        <v>17.72</v>
       </c>
       <c r="AF9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH9">
         <v>133</v>
       </c>
       <c r="AI9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>186</v>
       </c>
       <c r="AY9">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>218</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>577</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BH9">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>3039</v>
+        <v>698</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1373,55 +1373,55 @@
         <v>1405</v>
       </c>
       <c r="G10">
-        <v>1405</v>
+        <v>81</v>
       </c>
       <c r="H10">
-        <v>69.48</v>
+        <v>49.8</v>
       </c>
       <c r="I10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10">
-        <v>11.56</v>
+        <v>9.98</v>
       </c>
       <c r="K10">
         <v>60</v>
       </c>
       <c r="L10">
-        <v>3.33</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>60</v>
       </c>
       <c r="O10">
-        <v>3.33</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="R10">
         <v>72</v>
       </c>
       <c r="S10">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="T10">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="V10">
         <v>81</v>
       </c>
       <c r="W10">
-        <v>11.56</v>
+        <v>49.8</v>
       </c>
       <c r="X10">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z10">
         <v>82</v>
       </c>
       <c r="AA10">
-        <v>2.3</v>
+        <v>9.98</v>
       </c>
       <c r="AB10">
         <v>69</v>
@@ -1430,16 +1430,16 @@
         <v>83</v>
       </c>
       <c r="AE10">
-        <v>0.41</v>
+        <v>0.78</v>
       </c>
       <c r="AF10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH10">
         <v>133</v>
       </c>
       <c r="AI10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>145</v>
       </c>
       <c r="AM10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>178</v>
       </c>
       <c r="AQ10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>186</v>
       </c>
       <c r="AY10">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>218</v>
       </c>
       <c r="BC10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>577</v>
       </c>
       <c r="BG10">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="BH10">
         <v>2</v>
